--- a/HI-GMP/HI-GMP.xlsx
+++ b/HI-GMP/HI-GMP.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\종훈\03 코딩\02 Fastlane_HI-GMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A729EE35-2EE1-4FFF-8685-C47F2B70ACF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC9C8B3-F53C-45F0-B636-B9083A83505E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1356" yWindow="2952" windowWidth="3696" windowHeight="7812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0. 기반" sheetId="5" r:id="rId1"/>
-    <sheet name="2. 가이드라인" sheetId="1" r:id="rId2"/>
-    <sheet name="3. 약전" sheetId="4" r:id="rId3"/>
+    <sheet name="0. LAYOUT" sheetId="5" r:id="rId1"/>
+    <sheet name="1. HI-GMP" sheetId="7" r:id="rId2"/>
+    <sheet name="2. GMP" sheetId="8" r:id="rId3"/>
+    <sheet name="3. Guideline" sheetId="1" r:id="rId4"/>
+    <sheet name="4. 약전" sheetId="4" r:id="rId5"/>
+    <sheet name="5. 참조 사이트" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="114">
-  <si>
-    <t>가이드라인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
   <si>
     <t>규제기관</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Online 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.ema.europa.eu/en</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,34 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EudraLex - Volume 4 - Good Manufacturing Practice (GMP) guidelines</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part I - Basic Requirements for Medicinal Products</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter 1 - Pharmaceutical Quality SystemSearch for available translations of the preceding link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter 2 - Personnel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMP 초보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GMP 초보자들이 쉽게 GMP 에 대한 개념을 익힐 수 있는 웹을 만드는 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,38 +241,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필수 포함 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMP 의 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMP 의 유래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GMP 에 대한 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GMP 의 미래?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GMP 가이드라인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,54 +265,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네이버 카페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GMP 관련 약전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NMPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GMP 관련 조직</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>웹사이트 목적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HI-GMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,18 +353,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>약전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엔코팜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교육, 영문화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한국 GMP 아카데미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,13 +374,189 @@
   </si>
   <si>
     <t>https://www.thermofisher.com/kr/ko/home/technical-resources/learning-centers.html</t>
+  </si>
+  <si>
+    <t>필수 포함 항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본 웹사이트는 ~~하는 웹사이트이며, ~~한 사람들에게 도움이 될 것 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹사이트 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On-line/Off-line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HI-GMP의 목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹사이트의 목표, 간략한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMP 의 컨셉에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KISS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드라인 간의 관계에 대해서 그림으로 제시하고, 해당하는 가이드라인을 클릭하면 팝업으로 설명이 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약전에 대한 내용을 표로 정리하여 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표로 정리하여 제시, Filter 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분을 잘해야 할 듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대한 simple 하게, Simple is the Best, KISS (Keep it simple, stupid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 졸업 후 제약회사에 취업할 예정이지만 GMP가 뭔지 모르는 예비 직장인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. GMP 산업에서 일하고 있지만 GMP에 대해 더 자세히 알고 싶은 직장인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 다른 산업에서 일하고 있지만 GMP 산업으로 이직하고 싶은 직장인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 분들을 포함하여 GMP와 관련된 모든 분들께 조금이라도 도움이 되고자 하는 마음에 만들어졌습니다! 모두 행복한 GMP 되세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMP 의 미래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMP 의 역사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약업신문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yakup.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTL전문기술교육센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북여성새로일하기지원본부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울과학기술새일센터 (WISET)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천대학교 혁신인력개발센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eMASS(이매스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koreabio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파마프런티어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kbiohealth오 송첨단의료산업진흥재단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북산학융합본부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련 조직, 국가의 규제기관 간의 관계를 그림으로 제시하면 좋을 듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드라인 내 챕터 간의 관계에 대해 그림으로 제시하면 좋을 듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +577,30 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -542,15 +625,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -561,6 +641,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -842,407 +939,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A14AEE4-1C9A-4EFB-910E-0441EC47762C}">
-  <dimension ref="C3:H77"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.69921875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="4.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="31.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+      <c r="D8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="G25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="F33" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="F34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="F38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="F39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="F40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="F41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="E49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F57" t="s">
+      <c r="D9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F58" t="s">
-        <v>70</v>
-      </c>
-      <c r="G58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" t="s">
-        <v>89</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F62" t="s">
-        <v>91</v>
-      </c>
-      <c r="G62" t="s">
-        <v>100</v>
-      </c>
-      <c r="H62" t="s">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.4">
-      <c r="F64" t="s">
+      <c r="C14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="F65" t="s">
-        <v>97</v>
-      </c>
-      <c r="G65" t="s">
-        <v>100</v>
-      </c>
-      <c r="H65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="F66" t="s">
+      <c r="E14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="F67" t="s">
-        <v>104</v>
-      </c>
-      <c r="G67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="F68" t="s">
-        <v>105</v>
-      </c>
-      <c r="G68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="F69" t="s">
-        <v>107</v>
-      </c>
-      <c r="G69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="F70" t="s">
-        <v>110</v>
-      </c>
-      <c r="G70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="F71" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E77" t="s">
-        <v>58</v>
-      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="10">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="10">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="10">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1250,11 +1131,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C3D214-4FDF-48E6-B552-132E51FA7790}">
+  <dimension ref="B1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531CB42C-AFAF-4A09-96E2-ECF38820E263}">
+  <dimension ref="C6:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I19"/>
+  <dimension ref="B4:F16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1263,286 +1249,211 @@
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.59765625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.796875" style="1"/>
-    <col min="12" max="12" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="39.59765625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" style="1"/>
+    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="I7" s="3" t="s">
+      <c r="F9" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="11" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="I9" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="I11" s="3" t="s">
+      <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="I13" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="I19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{1B0D4BEE-CA5B-4547-B1F5-A014D5CA81B4}"/>
-    <hyperlink ref="I7" r:id="rId2" xr:uid="{FE927D09-62C1-4DD7-8790-39CA28F831FF}"/>
-    <hyperlink ref="I9" r:id="rId3" xr:uid="{BD90701D-44E4-41E8-9A7B-B37CF9206496}"/>
-    <hyperlink ref="I11" r:id="rId4" xr:uid="{EF38C5DF-3ECA-4E64-BE01-863735AA98B2}"/>
-    <hyperlink ref="I13" r:id="rId5" xr:uid="{CFD71C46-E817-465A-AD45-E222472835EC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244B17AB-8224-4357-A188-46C2B00F8E53}">
   <dimension ref="B3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" customWidth="1"/>
+    <col min="4" max="4" width="32.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1550,13 +1461,13 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1564,13 +1475,13 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1578,10 +1489,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1590,7 +1501,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1654,4 +1565,448 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41D1223-B2B6-48A4-AC61-CEB6775C244C}">
+  <dimension ref="B3:N37"/>
+  <sheetViews>
+    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="6.8984375" customWidth="1"/>
+    <col min="11" max="11" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="81.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="M10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="N17" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="N19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="N20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="N21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="N22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="N28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="N29" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N29" r:id="rId1" xr:uid="{13BCF242-DEB7-4F53-8C43-88E9AB44F098}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HI-GMP/HI-GMP.xlsx
+++ b/HI-GMP/HI-GMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\종훈\03 코딩\02 Fastlane_HI-GMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC9C8B3-F53C-45F0-B636-B9083A83505E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0663AA7D-9E68-4338-845B-A691C9131226}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19272" yWindow="1296" windowWidth="7476" windowHeight="10344" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. LAYOUT" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="3. Guideline" sheetId="1" r:id="rId4"/>
     <sheet name="4. 약전" sheetId="4" r:id="rId5"/>
     <sheet name="5. 참조 사이트" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="295">
   <si>
     <t>규제기관</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,13 +551,564 @@
   <si>
     <t>가이드라인 내 챕터 간의 관계에 대해 그림으로 제시하면 좋을 듯</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+  </si>
+  <si>
+    <t>국가/지역/기관</t>
+  </si>
+  <si>
+    <t>사이트명</t>
+  </si>
+  <si>
+    <t>설   명(설립 목적)</t>
+  </si>
+  <si>
+    <t>GMP Authorities</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>MHRA</t>
+  </si>
+  <si>
+    <t>The Medicines and Healthcare products Regulatory Agency (MHRA) is the government agency which is responsible for ensuring that medicines and medical devices work, and are acceptably safe. The MHRA is an executive agency of the Department of Health.</t>
+  </si>
+  <si>
+    <t>US FDA</t>
+  </si>
+  <si>
+    <t>Basics for Industry</t>
+  </si>
+  <si>
+    <t>FDA Basics for Industry is aimed at improving communication between FDA and industry by making basic information about the regulatory process more accessible to industry in a user-friendly format.</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Health Canada</t>
+  </si>
+  <si>
+    <t>Health Canada is the Federal department responsible for helping Canadians maintain and improve their health, while respecting individual choices and circumstances.</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Danish FAQs on GMP</t>
+  </si>
+  <si>
+    <t>Here you may find answers to frequently asked questions regarding Annex 13 on medicinal products in clinical trials in the European guidelines on GMP.</t>
+  </si>
+  <si>
+    <t>EU ECA</t>
+  </si>
+  <si>
+    <t>European Compliance Academy</t>
+  </si>
+  <si>
+    <t>Here you may find links to GMP guideline and warning letters</t>
+  </si>
+  <si>
+    <t>EU EDQM</t>
+  </si>
+  <si>
+    <t>European Directorate for the Quality of Medicines &amp; HealthCare</t>
+  </si>
+  <si>
+    <t>The EDQM (Council of Europe) is a key European Organisation involved in Harmonisation &amp; Co-ordination of Standardisation, Regulation &amp; Quality Control of Medicines, Blood Transfusion, Organ Transplantation, Pharmaceuticals and Pharmaceutical Care.</t>
+  </si>
+  <si>
+    <t>EU Eudralex</t>
+  </si>
+  <si>
+    <t>EU Registration-Eudralex</t>
+  </si>
+  <si>
+    <t>The rules governing medicinal products in the European Union</t>
+  </si>
+  <si>
+    <t>EU HMA</t>
+  </si>
+  <si>
+    <t>Heads of Medicines Agency</t>
+  </si>
+  <si>
+    <t>The Heads of Medicines Agencies is a network of the Heads of the National Competent Authorities whose organisations are responsible for the regulation of Medicinal Products for human and veterinary use in the European Economic Area.</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>BfArM: Federal Institute for Drugs and Medical Devices</t>
+  </si>
+  <si>
+    <t>The Federal Institute for Drugs and Medical Devices (Bundesinstitut für Arzneimittel und Medizinprodukte, BfArM) is an independent higher federal authority within the portfolio of the Federal Ministry of Health</t>
+  </si>
+  <si>
+    <t>ICH</t>
+  </si>
+  <si>
+    <t>ICH Quality Guidelines</t>
+  </si>
+  <si>
+    <t>Harmonisation achievements in the Quality area include pivotal milestones such as the conduct of stability studies, defining relevant thresholds for impurities testing and a more flexible approach to pharmaceutical quality based on Good Manufacturing Practice (GMP) risk management.</t>
+  </si>
+  <si>
+    <t>Food and Drug Administration</t>
+  </si>
+  <si>
+    <t>U.S. Food and Drug Administration</t>
+  </si>
+  <si>
+    <t>CFR Title 21</t>
+  </si>
+  <si>
+    <t>Search CFR Title 21 Database</t>
+  </si>
+  <si>
+    <t>Q&amp;A on CGMP for Drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As part of the cGMP initiative announced in August of 2002, and to help FDA be more transparent with cGMP policy. This format to provide timely answers to questions about the meaning and application of cGMPs for human, animal, and biological drugs, and to share these widely. These questions and answers generally clarify statements of existing requirements or policy, and as such, are considered Level 2 guidance. </t>
+  </si>
+  <si>
+    <t>Drug Applications and CGMP Regulations</t>
+  </si>
+  <si>
+    <t>provides links to resources to help drug manufacturers comply with the Current Good Manufacturing Practice regulations.</t>
+  </si>
+  <si>
+    <t>Federal Food, Drug, and Cosmetic Act</t>
+  </si>
+  <si>
+    <r>
+      <t>The FDA's online reference edition of the Federal Food, Drug and Cosmetic Act is based on the United States Government Printing Office Federal Digital System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FDsys) version of the United States Code.</t>
+    </r>
+  </si>
+  <si>
+    <t>Guidance, Compliance, &amp; Regulatory Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidance for Industry, Warning Letters, Postmarket Surveillance Programs </t>
+  </si>
+  <si>
+    <t>WHO</t>
+  </si>
+  <si>
+    <t>WHO Basic Training Modules on GMP</t>
+  </si>
+  <si>
+    <t>The Prequalification Programme, set up in 2001, is a service provided by the World Health Organization (WHO) to facilitate access to medicines that meet unified standards of quality, safety and efficacy for HIV/AIDS, malaria and tuberculosis.</t>
+  </si>
+  <si>
+    <t>WHO Technical Reports: Specifications for Pharmaceutical Preparations</t>
+  </si>
+  <si>
+    <t>Annual reports (Technical Report Series) include all adopted guidelines in the form of Annexes.</t>
+  </si>
+  <si>
+    <t>대한민국 식품의약품안전청</t>
+  </si>
+  <si>
+    <t>일본 국립의약품식품위생연구소</t>
+  </si>
+  <si>
+    <t>National Institute fo Health Science</t>
+  </si>
+  <si>
+    <t>The National Institute of Health Sciences (NIHS) conducts testing, research, and studies toward the proper evaluation of the quality, safety, and efficacy of pharmaceutical products, foods, and the numerous chemicals in the living environment.</t>
+  </si>
+  <si>
+    <t>중국 국가식품약품감독관리국(영어)</t>
+  </si>
+  <si>
+    <t>State Food and Drug Administration (영어)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laws and Regulations </t>
+  </si>
+  <si>
+    <t>Regulatory guide(application and approval procedures)</t>
+  </si>
+  <si>
+    <t>GMP Q&amp;A</t>
+  </si>
+  <si>
+    <t>GMP Question and Answers</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Questions &amp; answers on the code of good manufacturing practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions &amp; answers on the code of good manufacturing practice for medicinal products. This Q&amp;A will be updated as further experience is received by the Office of Manufacturing Quality </t>
+  </si>
+  <si>
+    <t>GMP Questions and Answers</t>
+  </si>
+  <si>
+    <t>Questions and Answers</t>
+  </si>
+  <si>
+    <t>Danish Medicines Agency</t>
+  </si>
+  <si>
+    <t>GMP Requirements for API</t>
+  </si>
+  <si>
+    <t>GMP requirements for manufacturers of active pharmaceutical ingredients (APIs) - questions and answers</t>
+  </si>
+  <si>
+    <t>EMA</t>
+  </si>
+  <si>
+    <t>Q&amp;A: GMP</t>
+  </si>
+  <si>
+    <t>The Agency publishes answers to frequently asked questions below after they are discussed and agreed by the GMP/GDP Inspectors Working Group. Further questions and answers will be published as the need arises. Please note that individual questions and answers may be removed when the relevant GMP guidelines are updated.</t>
+  </si>
+  <si>
+    <t>UK MHRA</t>
+  </si>
+  <si>
+    <t>GMP-QRM: FAQ</t>
+  </si>
+  <si>
+    <t>Good Manufacturing Practice (GMP) - Quality risk management: Frequently asked questions</t>
+  </si>
+  <si>
+    <t>GMP-API: FAQ</t>
+  </si>
+  <si>
+    <t>Good Manufacturing Practice: Active pharmaceutical ingredient (API) FAQs</t>
+  </si>
+  <si>
+    <t>Q &amp; A on cGMP for Drugs</t>
+  </si>
+  <si>
+    <t>Questions and Answers on Current Good Manufacturing Practices (CGMP) for Drugs</t>
+  </si>
+  <si>
+    <t>공공기관</t>
+  </si>
+  <si>
+    <t>ANSI</t>
+  </si>
+  <si>
+    <t>American National Standard Institute</t>
+  </si>
+  <si>
+    <t>ASTM</t>
+  </si>
+  <si>
+    <t>ASTM International</t>
+  </si>
+  <si>
+    <t>CEN</t>
+  </si>
+  <si>
+    <t>European Committee for Standardization</t>
+  </si>
+  <si>
+    <r>
+      <t>CEN is a major provider of European Standards and technical specifications. It is the only recognized European organization according to Directive 98/34/EC for the planning, drafting and adoption of European Standards in all areas of economic activity with the exeption of electrotechnology (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3966BF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>CENELEC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>) and telecommunication (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3966BF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>International Organization for Standardization</t>
+  </si>
+  <si>
+    <t>International Standards for Business, Government and Society</t>
+  </si>
+  <si>
+    <t>NIST</t>
+  </si>
+  <si>
+    <t>National Institute of Standards and Technology</t>
+  </si>
+  <si>
+    <t>NIST is a non-regulatory federal agency within the U.S. Department of Commerce. NIST's mission is to promote U.S. innovation and industrial competitiveness by advancing measurement science, standards, and technology in ways that enhance economic security and improve our quality of life.</t>
+  </si>
+  <si>
+    <t>RAPS</t>
+  </si>
+  <si>
+    <t>Regulatory Affairs Professionals Society</t>
+  </si>
+  <si>
+    <t>RAPS is the leading international membership organization for regulatory professionals who are working to ensure the safety, effectiveness and availability of healthcare products, including medical devices, pharmaceuticals and biotechnology. We are dedicated to advancing the profession and providing the highest level of support, knowledge, direction and standards to the regulatory community.</t>
+  </si>
+  <si>
+    <t>국가표준정보망</t>
+  </si>
+  <si>
+    <t>Korea Standards Service Network</t>
+  </si>
+  <si>
+    <t>일본규격협회</t>
+  </si>
+  <si>
+    <t>Japanese Standards Association</t>
+  </si>
+  <si>
+    <t>한국계량측정협회</t>
+  </si>
+  <si>
+    <t>KASTO: Korea Association of Standards &amp; Testing Organization</t>
+  </si>
+  <si>
+    <t>국가 측정표준의 효율적인 보금으로 정밀측정기술 및 시험검사기술과 계량측정산업의 발전을 도모하고 측정의 정밀, 정확도 향상에 이바지하여 국가산업 발전에 기여하기 위해 설립.</t>
+  </si>
+  <si>
+    <t>한국과학표준원</t>
+  </si>
+  <si>
+    <t>KRISS: Korea Research Institute of Standards and Science</t>
+  </si>
+  <si>
+    <t>국가표준기본법에 의한 국가측정표준 대표기관으로서 국가표준제도의 확립 및 이와 관련된 연구ㆍ개발을 수행하고, 그 성과를 보급함으로써 국가 경제발전과 과학기술 발전 및 국민의 삶의 질 향상에 이바지함 (정관 제2조)</t>
+  </si>
+  <si>
+    <t>국제/국가별 단체</t>
+  </si>
+  <si>
+    <t>APIC/cefic</t>
+  </si>
+  <si>
+    <t>Active Pharmaceutical Ingredient Committee</t>
+  </si>
+  <si>
+    <t>To promote the use of compliant APIs in medicinal products to ensure patient safety</t>
+  </si>
+  <si>
+    <t>To represent the interests of pharmaceutical and chemical companies producing APIs and intermediates in Europe by</t>
+  </si>
+  <si>
+    <t>efpia</t>
+  </si>
+  <si>
+    <t>European Federation of Pharmaceutical Institutes and Associations</t>
+  </si>
+  <si>
+    <t>EFPIA's mission is to promote pharmaceutical research and development in Europe as well as creating a favourable economic, regulatory and political environment, enabling the research-based pharmaceutical industry to meet the growing healthcare needs and expectations of patients.</t>
+  </si>
+  <si>
+    <t>GHTF</t>
+  </si>
+  <si>
+    <t>Global Harmonization Task Force</t>
+  </si>
+  <si>
+    <t>to achieve greater uniformity between national medical device regulatory systems. This is being done with two aims in mind: enhancing patient safety and increasing access to safe, effective and clinically beneficial medical technologies around the world.</t>
+  </si>
+  <si>
+    <t>GPHA</t>
+  </si>
+  <si>
+    <t>Generic Pharmaceutical Association</t>
+  </si>
+  <si>
+    <t>The Generic Pharmaceutical Association (GPhA) represents the manufacturers and distributors of finished generic pharmaceutical products, manufacturers and distributors of bulk active pharmaceutical chemicals, and suppliers of other goods and services to the generic pharmaceutical industry.</t>
+  </si>
+  <si>
+    <t>IEST</t>
+  </si>
+  <si>
+    <t>Institute of Environmental Sciences and Technology</t>
+  </si>
+  <si>
+    <t>IEST is an international, technical society of engineers, scientists, and educators that serves its members and the industries they represent (simulating, testing, controlling, and teaching the environments of earth and space) through education and the development of recommended practices and standards.</t>
+  </si>
+  <si>
+    <t>IGPA</t>
+  </si>
+  <si>
+    <t>International Generic Pharmaceutical Alliance</t>
+  </si>
+  <si>
+    <t>The EGA is the official representative body of the European generic and biosimilar pharmaceutical industry, which is at the forefront of providing high-quality affordable medicines to millions of Europeans and stimulating competitiveness and innovation in the pharmaceutical sector.</t>
+  </si>
+  <si>
+    <t>IPEC, Europe</t>
+  </si>
+  <si>
+    <t>International Pharmacutical Excipients Council, Europe</t>
+  </si>
+  <si>
+    <t>IPEC Europe represents the views of its members to appropriate regulatory bodies (European Commission, EMA, European Pharmacopoeia) and is recognised by Government agencies around the world as the voice of European producers and users of pharmaceutical excipients. Combined advocacy is essential to ensure introduction to the market of safe new excipients which meet globally accepted standards.</t>
+  </si>
+  <si>
+    <t>ISPE</t>
+  </si>
+  <si>
+    <t>International Society for Pharmaceutical Engineering</t>
+  </si>
+  <si>
+    <t>ISPE is an individual membership Society for professionals involved in the manufacture of pharmaceuticals and related products.</t>
+  </si>
+  <si>
+    <t>PDA</t>
+  </si>
+  <si>
+    <t>Parenteral Drug Association</t>
+  </si>
+  <si>
+    <t>To develop scientifically sound, practical technical information and resources to advance science and regulation for the pharmaceutical and biopharmaceutical industry through the expertise of our global membership.</t>
+  </si>
+  <si>
+    <t>PICS</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Inspection Co-operation Scheme</t>
+  </si>
+  <si>
+    <t>to lead the international development, implementation and maintenance of harmonised Good Manufacturing Practice (GMP) standards and quality systems of inspectorates in the field of medicinal products</t>
+  </si>
+  <si>
+    <t>규격, 약전</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Central Drugs Standard Control Organization</t>
+  </si>
+  <si>
+    <t>Chemdex</t>
+  </si>
+  <si>
+    <t>Directory of Chemistry on the www</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>European Pharmacopoeia</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>International Pharmacopoeia</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>일본약국방 15개정(2006.4: 영문판)</t>
+  </si>
+  <si>
+    <t>일본약국방 15개정(2006.4: 일문판)</t>
+  </si>
+  <si>
+    <t>USP</t>
+  </si>
+  <si>
+    <t>US Pharmacopoeia</t>
+  </si>
+  <si>
+    <t>기타 의약관련정보</t>
+  </si>
+  <si>
+    <t>드러그인포</t>
+  </si>
+  <si>
+    <t>BIT Druginfo</t>
+  </si>
+  <si>
+    <t>생물학연구정보센터</t>
+  </si>
+  <si>
+    <t>BRIC: Biology Research Information Center</t>
+  </si>
+  <si>
+    <t>숙명여자대학교 의약정보연구소</t>
+  </si>
+  <si>
+    <t>Drug Inforamtion Reasearch Institute</t>
+  </si>
+  <si>
+    <t>링크 종합</t>
+  </si>
+  <si>
+    <t>Pharmweb-Directory of Link</t>
+  </si>
+  <si>
+    <t>A directory of links to pharmaceutical, medical and health-related government and regulatory bodies around the world</t>
+  </si>
+  <si>
+    <t>A directory of links to pharmaceutical, medical and health-related government and regulatory bodies around the world.</t>
+  </si>
+  <si>
+    <t>Globepharm</t>
+  </si>
+  <si>
+    <t>Global GMP Experts</t>
+  </si>
+  <si>
+    <t>Link to Worldwide(GMP Codes and Regulations, Regulatory Agencies, Industry Trade Associations, Colleges of Pharmacy that teach Industrial Pharmacy)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,20 +1155,142 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3966BF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -625,7 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,9 +1315,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,6 +1328,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -963,88 +1688,88 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>3</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1054,64 +1779,64 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>2</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>3</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>4</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1193,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531CB42C-AFAF-4A09-96E2-ECF38820E263}">
   <dimension ref="C6:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1239,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1290,7 +2015,7 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1307,7 +2032,7 @@
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1324,7 +2049,7 @@
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1341,7 +2066,7 @@
       <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1358,7 +2083,7 @@
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1571,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41D1223-B2B6-48A4-AC61-CEB6775C244C}">
   <dimension ref="B3:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1928,7 +2653,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="N29" s="12" t="s">
+      <c r="N29" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2009,4 +2734,988 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2565AA48-4A36-4957-83BB-A70439B2052D}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40.296875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.09765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.69921875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="69" style="16" customWidth="1"/>
+    <col min="4" max="4" width="99.8984375" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="40.296875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A9" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A10" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A14" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A16" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A17" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A18" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A19" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A21" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A25" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A28" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A34" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A36" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A37" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A40" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A41" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A44" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A45" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A46" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A47" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A48" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A49" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A50" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A51" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A52" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A63" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A64" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.mhra.gov.uk/" xr:uid="{4E32BD9E-5C9E-4E5E-BD19-87CEF7272153}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://www.fda.gov/ForIndustry/FDABasicsforIndustry/default.htm" xr:uid="{15E97F80-2EBB-4896-9559-4C81D4F110BE}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://www.hc-sc.gc.ca/index-eng.php" xr:uid="{440B9EFD-8634-4B25-92BF-C97CC1955624}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://www.dkma.dk/1024/visUKLSArtikel.asp?artikelID=9503" xr:uid="{E915BC8D-F862-491A-9EC1-33CD9C056532}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://www.gmp-compliance.org/eca_link_navigator.html" xr:uid="{E587175B-45AB-45CC-B95A-996AB1714077}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://www.edqm.eu/en/Homepage-628.html" xr:uid="{5A51F616-1D09-41B8-BF5E-602E817D4F27}"/>
+    <hyperlink ref="C8" r:id="rId7" display="http://ec.europa.eu/health/documents/eudralex/index_en.htm" xr:uid="{A6B4F0FB-7355-418E-A2FA-DA38C34355F9}"/>
+    <hyperlink ref="C9" r:id="rId8" display="http://www.hma.eu/" xr:uid="{089F58CD-26C4-4C29-91D6-A3D5CCD872BA}"/>
+    <hyperlink ref="C10" r:id="rId9" display="http://www.bfarm.de/cln_103/EN/Home/home_node.html" xr:uid="{8E200B42-9AB0-4E8C-B8F3-EE9B9FCA880B}"/>
+    <hyperlink ref="C11" r:id="rId10" display="http://www.ich.org/products/guidelines/quality/article/quality-guidelines.html" xr:uid="{46035CF2-6F62-4E53-A18C-0116A37D5FA6}"/>
+    <hyperlink ref="C12" r:id="rId11" display="http://www.fda.gov/" xr:uid="{E437390B-9C33-4E4A-A2A4-27DE28451205}"/>
+    <hyperlink ref="C13" r:id="rId12" display="http://www.accessdata.fda.gov/scripts/cdrh/cfdocs/cfCFR/CFRSearch.cfm" xr:uid="{8A2B081E-44D9-4E02-8BB2-B962888DB38C}"/>
+    <hyperlink ref="C14" r:id="rId13" display="http://www.fda.gov/Drugs/DevelopmentApprovalProcess/Manufacturing/ucm124740.htm" xr:uid="{562C1028-117A-472D-8F0C-A2AECD0A3490}"/>
+    <hyperlink ref="C15" r:id="rId14" display="http://www.fda.gov/Drugs/DevelopmentApprovalProcess/Manufacturing/ucm090016.htm" xr:uid="{4EC5613C-5C90-46EF-BE5D-32EFBB1606FE}"/>
+    <hyperlink ref="C16" r:id="rId15" display="http://www.fda.gov/RegulatoryInformation/Legislation/FederalFoodDrugandCosmeticActFDCAct/default.htm" xr:uid="{E4116DD3-8F38-4A78-80A8-905FC024B184}"/>
+    <hyperlink ref="C17" r:id="rId16" display="http://www.fda.gov/Drugs/GuidanceComplianceRegulatoryInformation/default.htm" xr:uid="{FF7F6DCB-2576-4C60-B5A4-521E183DC1B0}"/>
+    <hyperlink ref="C18" r:id="rId17" display="http://apps.who.int/prequal/" xr:uid="{EB06E8FB-F97A-4F65-B832-272AB4BC4B01}"/>
+    <hyperlink ref="C19" r:id="rId18" display="http://www.who.int/medicines/publications/pharmprep/en/" xr:uid="{67023697-D0D6-4563-9FD2-D0E9CE30AA55}"/>
+    <hyperlink ref="C20" r:id="rId19" display="http://www.mfds.go.kr/" xr:uid="{D6020E76-2FCC-449F-A6BE-4CE51C2C56B6}"/>
+    <hyperlink ref="C21" r:id="rId20" display="http://www.nihs.go.jp/english/index.html" xr:uid="{0170C94E-89CA-478B-B4E0-3CA715A3E437}"/>
+    <hyperlink ref="C22" r:id="rId21" display="http://eng.sfda.gov.cn/WS03/CL0758/" xr:uid="{B5BA0923-17FB-446D-84D4-0C5ED2DBE09E}"/>
+    <hyperlink ref="C23" r:id="rId22" display="http://eng.sfda.gov.cn/WS03/CL0759/" xr:uid="{3121D30F-A631-4419-969A-BC7F2A1C1C98}"/>
+    <hyperlink ref="C24" r:id="rId23" display="http://www.who.int/medicines/areas/quality_safety/quality_assurance/gmp/en/index.html" xr:uid="{1CA3093B-01CD-4CCB-9F52-E90E319996EC}"/>
+    <hyperlink ref="C25" r:id="rId24" display="http://www.tga.gov.au/industry/manuf-medicines-cgmp-qa.htm" xr:uid="{FEB426BB-BA84-474D-B37E-C2DDFEF04DBB}"/>
+    <hyperlink ref="C26" r:id="rId25" display="http://www.hc-sc.gc.ca/dhp-mps/compli-conform/gmp-bpf/question/index-eng.php" xr:uid="{12CF5213-A41D-413A-82E7-06688CD64D8B}"/>
+    <hyperlink ref="C27" r:id="rId26" location="4" display="http://www.dkma.dk/1024/visUKLSArtikel.asp?artikelID=8127 - 4" xr:uid="{497C1D6B-3A8E-47F2-925F-D1141BDE4D33}"/>
+    <hyperlink ref="C28" r:id="rId27" display="http://www.ema.europa.eu/ema/index.jsp?curl=pages/regulation/q_and_a/q_and_a_detail_000027.jsp&amp;murl=menus/regulations/regulations.jsp&amp;mid=WC0b01ac05800296ca&amp;jsenabled=true" xr:uid="{8532B251-96F0-4862-B12F-B5E59A463ED6}"/>
+    <hyperlink ref="C29" r:id="rId28" location="1" display="http://www.mhra.gov.uk/Howweregulate/Medicines/Inspectionandstandards/GoodManufacturingPractice/FAQ/QualityRiskManagement/index.htm - 1" xr:uid="{A7C97932-7A31-4D67-955D-7CA7AA7C00CE}"/>
+    <hyperlink ref="C30" r:id="rId29" display="http://www.mhra.gov.uk/Howweregulate/Medicines/Inspectionandstandards/GoodManufacturingPractice/FAQ/API/index.htm" xr:uid="{2CBF7D32-F8F4-4E3F-B13C-F84ABC07459A}"/>
+    <hyperlink ref="C31" r:id="rId30" display="http://www.fda.gov/Drugs/GuidanceComplianceRegulatoryInformation/Guidances/ucm124740.htm" xr:uid="{625BF3C1-3751-4D8B-A176-F00E2E690882}"/>
+    <hyperlink ref="C32" r:id="rId31" display="http://www.ansi.org/" xr:uid="{FF886EEC-A218-41F8-AA78-75CA7A687CFD}"/>
+    <hyperlink ref="C33" r:id="rId32" display="http://www.astm.org/" xr:uid="{692C6514-4856-499C-B8C7-C9289A20D2EA}"/>
+    <hyperlink ref="C34" r:id="rId33" display="http://www.cen.eu/cen/pages/default.aspx" xr:uid="{49C11FE4-BEBC-4ED5-B6B8-C3328C30F9FA}"/>
+    <hyperlink ref="C35" r:id="rId34" display="http://www.iso.org/iso/home.html" xr:uid="{F68E0E77-3D9C-4C12-B6B2-F887527749B6}"/>
+    <hyperlink ref="C36" r:id="rId35" display="http://www.nist.gov/" xr:uid="{3C77D744-EBC6-49F3-8365-74E9222F299F}"/>
+    <hyperlink ref="D36" r:id="rId36" display="http://www.commerce.gov/" xr:uid="{198F627B-1E40-4FAA-A7B1-DC072115B1BD}"/>
+    <hyperlink ref="C37" r:id="rId37" display="http://www.raps.org/" xr:uid="{711C9BB6-5BA7-47C8-B0EC-A3C6DAB73F74}"/>
+    <hyperlink ref="C38" r:id="rId38" display="http://www.kssn.net/" xr:uid="{A6D9CCCF-A30D-422F-BB8B-EE1297EDD208}"/>
+    <hyperlink ref="C39" r:id="rId39" display="http://www.jsa.or.jp/top.asp" xr:uid="{907DFC19-E697-49E4-9B2D-6D356D60575D}"/>
+    <hyperlink ref="C40" r:id="rId40" display="http://www.kasto.or.kr/" xr:uid="{04F92A52-D56F-4B75-8E41-F90A8A18D96C}"/>
+    <hyperlink ref="C41" r:id="rId41" display="http://www.kriss.re.kr/" xr:uid="{C05B6867-FAEF-4641-A8D9-E75A1371808B}"/>
+    <hyperlink ref="C42" r:id="rId42" display="http://apic.cefic.org/" xr:uid="{55ABC6C5-C117-4A9C-A388-1B00D0912B29}"/>
+    <hyperlink ref="C44" r:id="rId43" display="http://www.efpia.org/Content/Default.asp" xr:uid="{29E140A1-8B3E-4A07-9220-35FB8B8B18EF}"/>
+    <hyperlink ref="C45" r:id="rId44" display="http://www.ghtf.org/" xr:uid="{C8CBF248-5748-4880-97D2-021C590E9DE8}"/>
+    <hyperlink ref="C46" r:id="rId45" display="http://www.gphaonline.org/" xr:uid="{AC2EFCAE-75B7-42D7-9C0F-B0AC897E0F7F}"/>
+    <hyperlink ref="C47" r:id="rId46" display="http://www.iest.org/" xr:uid="{589CB2DE-F25E-4F2A-ADF1-2ABB4AAD6965}"/>
+    <hyperlink ref="C48" r:id="rId47" display="http://www.egagenerics.com/igpa.htm" xr:uid="{5BB287E8-6028-42B1-8292-22332EF94539}"/>
+    <hyperlink ref="C49" r:id="rId48" display="http://www.ipec-europe.org/" xr:uid="{EE7D0538-4DD9-4910-9AAF-A33107A38D5A}"/>
+    <hyperlink ref="C50" r:id="rId49" display="http://www.ispe.org/" xr:uid="{453EF15F-28B5-49C6-8F6E-F01E4537CD66}"/>
+    <hyperlink ref="C51" r:id="rId50" display="http://www.pda.org/" xr:uid="{73088115-8D4A-4D52-A6AC-89FB44D46225}"/>
+    <hyperlink ref="C52" r:id="rId51" display="http://www.picscheme.org/" xr:uid="{7A3B98CD-BBF6-4F3B-8115-45597B0EEDF8}"/>
+    <hyperlink ref="C53" r:id="rId52" display="http://www.cdsco.nic.in/index.html" xr:uid="{AF3865D9-C289-4E68-9DA8-68DF472CA852}"/>
+    <hyperlink ref="C54" r:id="rId53" display="http://www.chemdex.org/" xr:uid="{A2718811-C8CB-4A63-8075-FD25C99C6FEC}"/>
+    <hyperlink ref="C55" r:id="rId54" display="http://www.edqm.eu/en/Work-Programme-607.html" xr:uid="{516433C1-A627-480E-A63C-41425BA97388}"/>
+    <hyperlink ref="C56" r:id="rId55" display="http://apps.who.int/phint/en/p/about/" xr:uid="{1C14FB3C-A72F-4FBE-A5C3-DC318EE48AD3}"/>
+    <hyperlink ref="C57" r:id="rId56" display="http://jpdb.nihs.go.jp/jp15e/" xr:uid="{1D371599-6068-42F5-8DFD-6872359F7C20}"/>
+    <hyperlink ref="C58" r:id="rId57" display="http://jpdb.nihs.go.jp/jp15/YAKKYOKUHOU15.pdf" xr:uid="{185F226D-B88F-4AB1-BF0C-758DD1F4CD94}"/>
+    <hyperlink ref="C59" r:id="rId58" display="http://www.usp.org/" xr:uid="{6EF9119B-D587-48D4-B457-07003154053D}"/>
+    <hyperlink ref="C60" r:id="rId59" display="http://www.druginfo.co.kr/" xr:uid="{3E7B74B8-4469-4B0E-93B4-F163A2CA873A}"/>
+    <hyperlink ref="C61" r:id="rId60" display="http://bric.postech.ac.kr/" xr:uid="{C18BE239-B531-4789-9B0A-58E7957050E5}"/>
+    <hyperlink ref="C62" r:id="rId61" display="http://sdic.sookmyung.ac.kr/" xr:uid="{51740B00-7473-4AA9-BD53-29E9145332EF}"/>
+    <hyperlink ref="C63" r:id="rId62" display="http://www.pharmweb.net/pwmirror/pwk/pharmwebk.html" xr:uid="{B050138A-1914-4A60-BCB3-31C41E8049EE}"/>
+    <hyperlink ref="C64" r:id="rId63" display="http://www.globepharm.org/links/resource.html" xr:uid="{0C6BBB34-82BB-4F8A-B681-29ED96CC6030}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
+</worksheet>
 </file>
--- a/HI-GMP/HI-GMP.xlsx
+++ b/HI-GMP/HI-GMP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\종훈\03 코딩\02 Fastlane_HI-GMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0663AA7D-9E68-4338-845B-A691C9131226}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC8FD4-EDB4-4ABC-A7CA-BD8381254F89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19272" yWindow="1296" windowWidth="7476" windowHeight="10344" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. LAYOUT" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="298">
   <si>
     <t>규제기관</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,6 +1102,17 @@
   </si>
   <si>
     <t>Link to Worldwide(GMP Codes and Regulations, Regulatory Agencies, Industry Trade Associations, Colleges of Pharmacy that teach Industrial Pharmacy)</t>
+  </si>
+  <si>
+    <t>가이드라인 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/health/documents/eudralex/vol-4_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.fda.gov/drugs/pharmaceutical-quality-resources/current-good-manufacturing-practice-cgmp-regulations</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1273,15 +1284,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1299,7 +1301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1326,12 +1328,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1341,19 +1337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1365,23 +1349,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1688,24 +1693,24 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="7">
@@ -1779,24 +1784,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="7">
@@ -1918,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531CB42C-AFAF-4A09-96E2-ECF38820E263}">
   <dimension ref="C6:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H10:H11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1962,176 +1967,190 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:F16"/>
+  <dimension ref="B4:G16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.59765625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" style="1"/>
-    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="2" width="8.796875" style="4"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="39.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="55.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="4"/>
+    <col min="9" max="9" width="11.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="G6" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
+      <c r="G7" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="G8" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{523DB3D7-2970-457D-8AE1-F51913B7B3D2}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{9EE55634-2906-45DA-82E8-178DC24F26D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2140,7 +2159,7 @@
   <dimension ref="B3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2296,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41D1223-B2B6-48A4-AC61-CEB6775C244C}">
   <dimension ref="B3:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2738,982 +2757,1175 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2565AA48-4A36-4957-83BB-A70439B2052D}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="B2:F65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.296875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.69921875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="69" style="16" customWidth="1"/>
-    <col min="4" max="4" width="99.8984375" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="40.296875" style="16"/>
+    <col min="1" max="1" width="3.09765625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.69921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="69" style="4" customWidth="1"/>
+    <col min="5" max="5" width="99.8984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="69" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="40.296875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="2" spans="2:6" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="F2" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B3" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C3" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D3" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E3" s="23" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
+      <c r="F3" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B4" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C4" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D4" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E4" s="23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="F4" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B5" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C5" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D5" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E5" s="23" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
+      <c r="F5" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B6" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C6" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D6" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E6" s="23" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="s">
+      <c r="F6" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C7" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D7" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E7" s="23" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="20" t="s">
+      <c r="F7" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B8" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C8" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E8" s="25" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
+      <c r="F8" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C9" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D9" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E9" s="23" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
+      <c r="F9" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C10" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D10" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E10" s="23" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A10" s="17" t="s">
+      <c r="F10" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B11" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C11" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D11" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E11" s="23" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
+      <c r="F11" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B12" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="D12" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E12" s="23" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
+      <c r="F12" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C13" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D13" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E13" s="23" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
+      <c r="F13" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C14" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D14" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E14" s="23" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A14" s="17" t="s">
+      <c r="F14" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B15" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C15" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D15" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E15" s="23" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="17" t="s">
+      <c r="F15" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C16" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D16" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E16" s="23" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A16" s="17" t="s">
+      <c r="F16" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B17" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C17" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D17" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E17" s="23" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A17" s="17" t="s">
+      <c r="F17" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C18" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D18" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E18" s="23" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A18" s="17" t="s">
+      <c r="F18" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B19" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D19" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E19" s="23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A19" s="17" t="s">
+      <c r="F19" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C20" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D20" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E20" s="23" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
+      <c r="F20" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="C21" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D21" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="E21" s="25" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="17" t="s">
+      <c r="F21" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B22" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C22" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E22" s="23" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="17" t="s">
+      <c r="F22" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C23" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E23" s="23" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="17" t="s">
+      <c r="F23" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C24" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D24" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="E24" s="23" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="17" t="s">
+      <c r="F24" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C25" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D25" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="E25" s="23" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A25" s="17" t="s">
+      <c r="F25" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B26" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C26" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D26" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="E26" s="23" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="17" t="s">
+      <c r="F26" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C27" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D27" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E27" s="23" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="17" t="s">
+      <c r="F27" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="C28" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="D28" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E28" s="23" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A28" s="17" t="s">
+      <c r="F28" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B29" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="C29" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D29" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E29" s="23" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="17" t="s">
+      <c r="F29" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="C30" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="D30" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="E30" s="23" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="17" t="s">
+      <c r="F30" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="C31" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D31" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="E31" s="23" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="17" t="s">
+      <c r="F31" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C32" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="D32" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="E32" s="23" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="17" t="s">
+      <c r="F32" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="C33" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="D33" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="E33" s="23" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="17" t="s">
+      <c r="F33" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="C34" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="D34" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="E34" s="23" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A34" s="17" t="s">
+      <c r="F34" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B35" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="C35" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="D35" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="E35" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="17" t="s">
+      <c r="F35" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="C36" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="D36" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="E36" s="23" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A36" s="17" t="s">
+      <c r="F36" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B37" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="C37" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="D37" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="E37" s="27" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A37" s="17" t="s">
+      <c r="F37" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B38" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="C38" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="D38" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="E38" s="23" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="17" t="s">
+      <c r="F38" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="C39" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="D39" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="E39" s="23" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="17" t="s">
+      <c r="F39" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="C40" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="D40" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="E40" s="23" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A40" s="17" t="s">
+      <c r="F40" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B41" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="C41" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="D41" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="E41" s="23" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A41" s="17" t="s">
+      <c r="F41" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B42" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="C42" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="D42" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="E42" s="23" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="26" t="s">
+      <c r="F42" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="C43" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="D43" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="E43" s="23" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="18" t="s">
+      <c r="F43" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="23" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A44" s="17" t="s">
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B45" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="C45" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="D45" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="E45" s="23" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="17" t="s">
+      <c r="F45" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B46" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="C46" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="D46" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="E46" s="23" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A46" s="17" t="s">
+      <c r="F46" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B47" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="C47" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="D47" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E47" s="23" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A47" s="17" t="s">
+      <c r="F47" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B48" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="C48" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="D48" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="E48" s="23" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A48" s="17" t="s">
+      <c r="F48" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B49" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="C49" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="D49" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="E49" s="23" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A49" s="17" t="s">
+      <c r="F49" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B50" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="C50" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="D50" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="E50" s="23" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A50" s="17" t="s">
+      <c r="F50" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B51" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="C51" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="D51" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="E51" s="23" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A51" s="17" t="s">
+      <c r="F51" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B52" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="C52" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="D52" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="E52" s="23" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A52" s="17" t="s">
+      <c r="F52" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B53" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="C53" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="D53" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="E53" s="23" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="17" t="s">
+      <c r="F53" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B54" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="C54" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="D54" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="E54" s="23" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="17" t="s">
+      <c r="F54" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="C55" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="D55" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="E55" s="23" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="20" t="s">
+      <c r="F55" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="C56" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="D56" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="E56" s="25" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="20" t="s">
+      <c r="F56" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="C57" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="D57" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="E57" s="25" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="20" t="s">
+      <c r="F57" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="C58" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="D58" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="E58" s="25" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="20" t="s">
+      <c r="F58" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B59" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="C59" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="D59" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="E59" s="25" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="20" t="s">
+      <c r="F59" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C60" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="D60" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="E60" s="25" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="17" t="s">
+      <c r="F60" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B61" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="C61" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="D61" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="E61" s="23" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="17" t="s">
+      <c r="F61" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B62" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="C62" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="D62" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="E62" s="23" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="17" t="s">
+      <c r="F62" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B63" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="C63" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="D63" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="E63" s="23" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A63" s="17" t="s">
+      <c r="F63" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B64" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="C64" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="D64" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="E64" s="23" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A64" s="17" t="s">
+      <c r="F64" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B65" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="C65" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="D65" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="E65" s="23" t="s">
         <v>294</v>
       </c>
+      <c r="F65" s="15" t="s">
+        <v>293</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
+  <mergeCells count="4">
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://www.mhra.gov.uk/" xr:uid="{4E32BD9E-5C9E-4E5E-BD19-87CEF7272153}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://www.fda.gov/ForIndustry/FDABasicsforIndustry/default.htm" xr:uid="{15E97F80-2EBB-4896-9559-4C81D4F110BE}"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://www.hc-sc.gc.ca/index-eng.php" xr:uid="{440B9EFD-8634-4B25-92BF-C97CC1955624}"/>
-    <hyperlink ref="C5" r:id="rId4" display="http://www.dkma.dk/1024/visUKLSArtikel.asp?artikelID=9503" xr:uid="{E915BC8D-F862-491A-9EC1-33CD9C056532}"/>
-    <hyperlink ref="C6" r:id="rId5" display="http://www.gmp-compliance.org/eca_link_navigator.html" xr:uid="{E587175B-45AB-45CC-B95A-996AB1714077}"/>
-    <hyperlink ref="C7" r:id="rId6" display="http://www.edqm.eu/en/Homepage-628.html" xr:uid="{5A51F616-1D09-41B8-BF5E-602E817D4F27}"/>
-    <hyperlink ref="C8" r:id="rId7" display="http://ec.europa.eu/health/documents/eudralex/index_en.htm" xr:uid="{A6B4F0FB-7355-418E-A2FA-DA38C34355F9}"/>
-    <hyperlink ref="C9" r:id="rId8" display="http://www.hma.eu/" xr:uid="{089F58CD-26C4-4C29-91D6-A3D5CCD872BA}"/>
-    <hyperlink ref="C10" r:id="rId9" display="http://www.bfarm.de/cln_103/EN/Home/home_node.html" xr:uid="{8E200B42-9AB0-4E8C-B8F3-EE9B9FCA880B}"/>
-    <hyperlink ref="C11" r:id="rId10" display="http://www.ich.org/products/guidelines/quality/article/quality-guidelines.html" xr:uid="{46035CF2-6F62-4E53-A18C-0116A37D5FA6}"/>
-    <hyperlink ref="C12" r:id="rId11" display="http://www.fda.gov/" xr:uid="{E437390B-9C33-4E4A-A2A4-27DE28451205}"/>
-    <hyperlink ref="C13" r:id="rId12" display="http://www.accessdata.fda.gov/scripts/cdrh/cfdocs/cfCFR/CFRSearch.cfm" xr:uid="{8A2B081E-44D9-4E02-8BB2-B962888DB38C}"/>
-    <hyperlink ref="C14" r:id="rId13" display="http://www.fda.gov/Drugs/DevelopmentApprovalProcess/Manufacturing/ucm124740.htm" xr:uid="{562C1028-117A-472D-8F0C-A2AECD0A3490}"/>
-    <hyperlink ref="C15" r:id="rId14" display="http://www.fda.gov/Drugs/DevelopmentApprovalProcess/Manufacturing/ucm090016.htm" xr:uid="{4EC5613C-5C90-46EF-BE5D-32EFBB1606FE}"/>
-    <hyperlink ref="C16" r:id="rId15" display="http://www.fda.gov/RegulatoryInformation/Legislation/FederalFoodDrugandCosmeticActFDCAct/default.htm" xr:uid="{E4116DD3-8F38-4A78-80A8-905FC024B184}"/>
-    <hyperlink ref="C17" r:id="rId16" display="http://www.fda.gov/Drugs/GuidanceComplianceRegulatoryInformation/default.htm" xr:uid="{FF7F6DCB-2576-4C60-B5A4-521E183DC1B0}"/>
-    <hyperlink ref="C18" r:id="rId17" display="http://apps.who.int/prequal/" xr:uid="{EB06E8FB-F97A-4F65-B832-272AB4BC4B01}"/>
-    <hyperlink ref="C19" r:id="rId18" display="http://www.who.int/medicines/publications/pharmprep/en/" xr:uid="{67023697-D0D6-4563-9FD2-D0E9CE30AA55}"/>
-    <hyperlink ref="C20" r:id="rId19" display="http://www.mfds.go.kr/" xr:uid="{D6020E76-2FCC-449F-A6BE-4CE51C2C56B6}"/>
-    <hyperlink ref="C21" r:id="rId20" display="http://www.nihs.go.jp/english/index.html" xr:uid="{0170C94E-89CA-478B-B4E0-3CA715A3E437}"/>
-    <hyperlink ref="C22" r:id="rId21" display="http://eng.sfda.gov.cn/WS03/CL0758/" xr:uid="{B5BA0923-17FB-446D-84D4-0C5ED2DBE09E}"/>
-    <hyperlink ref="C23" r:id="rId22" display="http://eng.sfda.gov.cn/WS03/CL0759/" xr:uid="{3121D30F-A631-4419-969A-BC7F2A1C1C98}"/>
-    <hyperlink ref="C24" r:id="rId23" display="http://www.who.int/medicines/areas/quality_safety/quality_assurance/gmp/en/index.html" xr:uid="{1CA3093B-01CD-4CCB-9F52-E90E319996EC}"/>
-    <hyperlink ref="C25" r:id="rId24" display="http://www.tga.gov.au/industry/manuf-medicines-cgmp-qa.htm" xr:uid="{FEB426BB-BA84-474D-B37E-C2DDFEF04DBB}"/>
-    <hyperlink ref="C26" r:id="rId25" display="http://www.hc-sc.gc.ca/dhp-mps/compli-conform/gmp-bpf/question/index-eng.php" xr:uid="{12CF5213-A41D-413A-82E7-06688CD64D8B}"/>
-    <hyperlink ref="C27" r:id="rId26" location="4" display="http://www.dkma.dk/1024/visUKLSArtikel.asp?artikelID=8127 - 4" xr:uid="{497C1D6B-3A8E-47F2-925F-D1141BDE4D33}"/>
-    <hyperlink ref="C28" r:id="rId27" display="http://www.ema.europa.eu/ema/index.jsp?curl=pages/regulation/q_and_a/q_and_a_detail_000027.jsp&amp;murl=menus/regulations/regulations.jsp&amp;mid=WC0b01ac05800296ca&amp;jsenabled=true" xr:uid="{8532B251-96F0-4862-B12F-B5E59A463ED6}"/>
-    <hyperlink ref="C29" r:id="rId28" location="1" display="http://www.mhra.gov.uk/Howweregulate/Medicines/Inspectionandstandards/GoodManufacturingPractice/FAQ/QualityRiskManagement/index.htm - 1" xr:uid="{A7C97932-7A31-4D67-955D-7CA7AA7C00CE}"/>
-    <hyperlink ref="C30" r:id="rId29" display="http://www.mhra.gov.uk/Howweregulate/Medicines/Inspectionandstandards/GoodManufacturingPractice/FAQ/API/index.htm" xr:uid="{2CBF7D32-F8F4-4E3F-B13C-F84ABC07459A}"/>
-    <hyperlink ref="C31" r:id="rId30" display="http://www.fda.gov/Drugs/GuidanceComplianceRegulatoryInformation/Guidances/ucm124740.htm" xr:uid="{625BF3C1-3751-4D8B-A176-F00E2E690882}"/>
-    <hyperlink ref="C32" r:id="rId31" display="http://www.ansi.org/" xr:uid="{FF886EEC-A218-41F8-AA78-75CA7A687CFD}"/>
-    <hyperlink ref="C33" r:id="rId32" display="http://www.astm.org/" xr:uid="{692C6514-4856-499C-B8C7-C9289A20D2EA}"/>
-    <hyperlink ref="C34" r:id="rId33" display="http://www.cen.eu/cen/pages/default.aspx" xr:uid="{49C11FE4-BEBC-4ED5-B6B8-C3328C30F9FA}"/>
-    <hyperlink ref="C35" r:id="rId34" display="http://www.iso.org/iso/home.html" xr:uid="{F68E0E77-3D9C-4C12-B6B2-F887527749B6}"/>
-    <hyperlink ref="C36" r:id="rId35" display="http://www.nist.gov/" xr:uid="{3C77D744-EBC6-49F3-8365-74E9222F299F}"/>
-    <hyperlink ref="D36" r:id="rId36" display="http://www.commerce.gov/" xr:uid="{198F627B-1E40-4FAA-A7B1-DC072115B1BD}"/>
-    <hyperlink ref="C37" r:id="rId37" display="http://www.raps.org/" xr:uid="{711C9BB6-5BA7-47C8-B0EC-A3C6DAB73F74}"/>
-    <hyperlink ref="C38" r:id="rId38" display="http://www.kssn.net/" xr:uid="{A6D9CCCF-A30D-422F-BB8B-EE1297EDD208}"/>
-    <hyperlink ref="C39" r:id="rId39" display="http://www.jsa.or.jp/top.asp" xr:uid="{907DFC19-E697-49E4-9B2D-6D356D60575D}"/>
-    <hyperlink ref="C40" r:id="rId40" display="http://www.kasto.or.kr/" xr:uid="{04F92A52-D56F-4B75-8E41-F90A8A18D96C}"/>
-    <hyperlink ref="C41" r:id="rId41" display="http://www.kriss.re.kr/" xr:uid="{C05B6867-FAEF-4641-A8D9-E75A1371808B}"/>
-    <hyperlink ref="C42" r:id="rId42" display="http://apic.cefic.org/" xr:uid="{55ABC6C5-C117-4A9C-A388-1B00D0912B29}"/>
-    <hyperlink ref="C44" r:id="rId43" display="http://www.efpia.org/Content/Default.asp" xr:uid="{29E140A1-8B3E-4A07-9220-35FB8B8B18EF}"/>
-    <hyperlink ref="C45" r:id="rId44" display="http://www.ghtf.org/" xr:uid="{C8CBF248-5748-4880-97D2-021C590E9DE8}"/>
-    <hyperlink ref="C46" r:id="rId45" display="http://www.gphaonline.org/" xr:uid="{AC2EFCAE-75B7-42D7-9C0F-B0AC897E0F7F}"/>
-    <hyperlink ref="C47" r:id="rId46" display="http://www.iest.org/" xr:uid="{589CB2DE-F25E-4F2A-ADF1-2ABB4AAD6965}"/>
-    <hyperlink ref="C48" r:id="rId47" display="http://www.egagenerics.com/igpa.htm" xr:uid="{5BB287E8-6028-42B1-8292-22332EF94539}"/>
-    <hyperlink ref="C49" r:id="rId48" display="http://www.ipec-europe.org/" xr:uid="{EE7D0538-4DD9-4910-9AAF-A33107A38D5A}"/>
-    <hyperlink ref="C50" r:id="rId49" display="http://www.ispe.org/" xr:uid="{453EF15F-28B5-49C6-8F6E-F01E4537CD66}"/>
-    <hyperlink ref="C51" r:id="rId50" display="http://www.pda.org/" xr:uid="{73088115-8D4A-4D52-A6AC-89FB44D46225}"/>
-    <hyperlink ref="C52" r:id="rId51" display="http://www.picscheme.org/" xr:uid="{7A3B98CD-BBF6-4F3B-8115-45597B0EEDF8}"/>
-    <hyperlink ref="C53" r:id="rId52" display="http://www.cdsco.nic.in/index.html" xr:uid="{AF3865D9-C289-4E68-9DA8-68DF472CA852}"/>
-    <hyperlink ref="C54" r:id="rId53" display="http://www.chemdex.org/" xr:uid="{A2718811-C8CB-4A63-8075-FD25C99C6FEC}"/>
-    <hyperlink ref="C55" r:id="rId54" display="http://www.edqm.eu/en/Work-Programme-607.html" xr:uid="{516433C1-A627-480E-A63C-41425BA97388}"/>
-    <hyperlink ref="C56" r:id="rId55" display="http://apps.who.int/phint/en/p/about/" xr:uid="{1C14FB3C-A72F-4FBE-A5C3-DC318EE48AD3}"/>
-    <hyperlink ref="C57" r:id="rId56" display="http://jpdb.nihs.go.jp/jp15e/" xr:uid="{1D371599-6068-42F5-8DFD-6872359F7C20}"/>
-    <hyperlink ref="C58" r:id="rId57" display="http://jpdb.nihs.go.jp/jp15/YAKKYOKUHOU15.pdf" xr:uid="{185F226D-B88F-4AB1-BF0C-758DD1F4CD94}"/>
-    <hyperlink ref="C59" r:id="rId58" display="http://www.usp.org/" xr:uid="{6EF9119B-D587-48D4-B457-07003154053D}"/>
-    <hyperlink ref="C60" r:id="rId59" display="http://www.druginfo.co.kr/" xr:uid="{3E7B74B8-4469-4B0E-93B4-F163A2CA873A}"/>
-    <hyperlink ref="C61" r:id="rId60" display="http://bric.postech.ac.kr/" xr:uid="{C18BE239-B531-4789-9B0A-58E7957050E5}"/>
-    <hyperlink ref="C62" r:id="rId61" display="http://sdic.sookmyung.ac.kr/" xr:uid="{51740B00-7473-4AA9-BD53-29E9145332EF}"/>
-    <hyperlink ref="C63" r:id="rId62" display="http://www.pharmweb.net/pwmirror/pwk/pharmwebk.html" xr:uid="{B050138A-1914-4A60-BCB3-31C41E8049EE}"/>
-    <hyperlink ref="C64" r:id="rId63" display="http://www.globepharm.org/links/resource.html" xr:uid="{0C6BBB34-82BB-4F8A-B681-29ED96CC6030}"/>
+    <hyperlink ref="E37" r:id="rId1" display="http://www.commerce.gov/" xr:uid="{198F627B-1E40-4FAA-A7B1-DC072115B1BD}"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://www.mhra.gov.uk/" xr:uid="{5673F51E-420C-49B9-B026-4DF107198A7F}"/>
+    <hyperlink ref="F4" r:id="rId3" display="http://www.fda.gov/ForIndustry/FDABasicsforIndustry/default.htm" xr:uid="{28F2D262-44BE-4E0A-BB53-08FA622BF75C}"/>
+    <hyperlink ref="F5" r:id="rId4" display="http://www.hc-sc.gc.ca/index-eng.php" xr:uid="{9750D6A5-98DB-4369-9AF9-3BFE390B986A}"/>
+    <hyperlink ref="F6" r:id="rId5" display="http://www.dkma.dk/1024/visUKLSArtikel.asp?artikelID=9503" xr:uid="{8240E629-2E50-47FC-A1B0-3ABC87EE5162}"/>
+    <hyperlink ref="F7" r:id="rId6" display="http://www.gmp-compliance.org/eca_link_navigator.html" xr:uid="{EB6544C6-8AB7-4D8F-998A-A37F5D63B6F4}"/>
+    <hyperlink ref="F8" r:id="rId7" display="http://www.edqm.eu/en/Homepage-628.html" xr:uid="{2F68ACA5-1C1F-4B06-86D3-C7A9A1B6644F}"/>
+    <hyperlink ref="F9" r:id="rId8" display="http://ec.europa.eu/health/documents/eudralex/index_en.htm" xr:uid="{24C7D877-96B0-4823-886E-AD3A3C800C51}"/>
+    <hyperlink ref="F10" r:id="rId9" display="http://www.hma.eu/" xr:uid="{37B946A5-6A8F-4C8A-BB93-37B94997FCAB}"/>
+    <hyperlink ref="F11" r:id="rId10" display="http://www.bfarm.de/cln_103/EN/Home/home_node.html" xr:uid="{6DEE79CA-788F-4586-8C90-24BC581E16E3}"/>
+    <hyperlink ref="F12" r:id="rId11" display="http://www.ich.org/products/guidelines/quality/article/quality-guidelines.html" xr:uid="{4062FADF-5E13-4559-A098-43A868A73D32}"/>
+    <hyperlink ref="F13" r:id="rId12" display="http://www.fda.gov/" xr:uid="{F6760487-FAB1-494D-B0D0-CC8CEA8F44EA}"/>
+    <hyperlink ref="F14" r:id="rId13" display="http://www.accessdata.fda.gov/scripts/cdrh/cfdocs/cfCFR/CFRSearch.cfm" xr:uid="{2E8BC3B4-99E7-4300-8A22-1071AF14561E}"/>
+    <hyperlink ref="F15" r:id="rId14" display="http://www.fda.gov/Drugs/DevelopmentApprovalProcess/Manufacturing/ucm124740.htm" xr:uid="{D627B7CE-F0F9-4CC0-AB38-C9BCAE2082BA}"/>
+    <hyperlink ref="F16" r:id="rId15" display="http://www.fda.gov/Drugs/DevelopmentApprovalProcess/Manufacturing/ucm090016.htm" xr:uid="{1F7A97AD-CD8F-4805-81AC-A33E9C6A3828}"/>
+    <hyperlink ref="F17" r:id="rId16" display="http://www.fda.gov/RegulatoryInformation/Legislation/FederalFoodDrugandCosmeticActFDCAct/default.htm" xr:uid="{B3E91DFA-F26D-42EE-B337-BAFB9533C7C3}"/>
+    <hyperlink ref="F18" r:id="rId17" display="http://www.fda.gov/Drugs/GuidanceComplianceRegulatoryInformation/default.htm" xr:uid="{E692F414-9E6E-456D-B6C2-60AFF060C284}"/>
+    <hyperlink ref="F19" r:id="rId18" display="http://apps.who.int/prequal/" xr:uid="{1AE2DC5B-CE41-492F-915A-DCFA6FF71116}"/>
+    <hyperlink ref="F20" r:id="rId19" display="http://www.who.int/medicines/publications/pharmprep/en/" xr:uid="{84A65849-D6F0-4219-86A2-0DE22C12E1A7}"/>
+    <hyperlink ref="F21" r:id="rId20" display="http://www.mfds.go.kr/" xr:uid="{58258520-9A6C-4C2F-A580-8D16F468F85C}"/>
+    <hyperlink ref="F22" r:id="rId21" display="http://www.nihs.go.jp/english/index.html" xr:uid="{B4D0482E-82F2-43F5-BC5C-DA582A071B61}"/>
+    <hyperlink ref="F23" r:id="rId22" display="http://eng.sfda.gov.cn/WS03/CL0758/" xr:uid="{29141C09-34AD-4F7A-912B-87720A8BACCA}"/>
+    <hyperlink ref="F24" r:id="rId23" display="http://eng.sfda.gov.cn/WS03/CL0759/" xr:uid="{478650B6-AFFA-47B7-9D9C-2D2B3F7D328C}"/>
+    <hyperlink ref="F25" r:id="rId24" display="http://www.who.int/medicines/areas/quality_safety/quality_assurance/gmp/en/index.html" xr:uid="{5B3EB31B-3433-4D63-943E-D79574D4035D}"/>
+    <hyperlink ref="F26" r:id="rId25" display="http://www.tga.gov.au/industry/manuf-medicines-cgmp-qa.htm" xr:uid="{CF29583B-CCB6-4309-9096-A4E1CDF0D17B}"/>
+    <hyperlink ref="F27" r:id="rId26" display="http://www.hc-sc.gc.ca/dhp-mps/compli-conform/gmp-bpf/question/index-eng.php" xr:uid="{4FACB1C3-DD14-47C8-BF91-7CB9D5582946}"/>
+    <hyperlink ref="F28" r:id="rId27" location="4" display="http://www.dkma.dk/1024/visUKLSArtikel.asp?artikelID=8127 - 4" xr:uid="{0C9616E5-87A6-4E17-BFB4-513C4ED72926}"/>
+    <hyperlink ref="F29" r:id="rId28" display="http://www.ema.europa.eu/ema/index.jsp?curl=pages/regulation/q_and_a/q_and_a_detail_000027.jsp&amp;murl=menus/regulations/regulations.jsp&amp;mid=WC0b01ac05800296ca&amp;jsenabled=true" xr:uid="{E0E694B3-A91F-43D3-98EC-9E6A4B2FB387}"/>
+    <hyperlink ref="F30" r:id="rId29" location="1" display="http://www.mhra.gov.uk/Howweregulate/Medicines/Inspectionandstandards/GoodManufacturingPractice/FAQ/QualityRiskManagement/index.htm - 1" xr:uid="{99494DC8-D72A-456C-9BB5-2B379D096B5D}"/>
+    <hyperlink ref="F31" r:id="rId30" display="http://www.mhra.gov.uk/Howweregulate/Medicines/Inspectionandstandards/GoodManufacturingPractice/FAQ/API/index.htm" xr:uid="{EE7A3E1C-123F-4198-9FBF-7F49C6432680}"/>
+    <hyperlink ref="F32" r:id="rId31" display="http://www.fda.gov/Drugs/GuidanceComplianceRegulatoryInformation/Guidances/ucm124740.htm" xr:uid="{033F2DA2-5434-4DEA-8544-E87A762F8F53}"/>
+    <hyperlink ref="F33" r:id="rId32" display="http://www.ansi.org/" xr:uid="{4489294D-E88F-4F95-BDF7-01FD6A3BAD46}"/>
+    <hyperlink ref="F34" r:id="rId33" display="http://www.astm.org/" xr:uid="{65ECA2CD-808F-49B3-9444-7C0039C0D992}"/>
+    <hyperlink ref="F35" r:id="rId34" display="http://www.cen.eu/cen/pages/default.aspx" xr:uid="{84C14907-786E-4A57-A5E6-74C8B42ADCA1}"/>
+    <hyperlink ref="F36" r:id="rId35" display="http://www.iso.org/iso/home.html" xr:uid="{9E4BCB77-6A2F-479E-9153-8529271C0808}"/>
+    <hyperlink ref="F37" r:id="rId36" display="http://www.nist.gov/" xr:uid="{2A5BF204-9465-4112-8082-B2E4539AB4D3}"/>
+    <hyperlink ref="F38" r:id="rId37" display="http://www.raps.org/" xr:uid="{152F6323-E021-43BE-AD9D-53AFABCF47F0}"/>
+    <hyperlink ref="F39" r:id="rId38" display="http://www.kssn.net/" xr:uid="{A9535EB6-A290-4129-8D44-C19768AF0C6E}"/>
+    <hyperlink ref="F40" r:id="rId39" display="http://www.jsa.or.jp/top.asp" xr:uid="{845470F7-580F-438A-B60A-8E02EBB050A4}"/>
+    <hyperlink ref="F41" r:id="rId40" display="http://www.kasto.or.kr/" xr:uid="{CD47E308-E9DD-4B02-95E1-529F7538E74B}"/>
+    <hyperlink ref="F42" r:id="rId41" display="http://www.kriss.re.kr/" xr:uid="{1CD3F811-7BE3-49BB-B18D-3ED9A802217D}"/>
+    <hyperlink ref="F43" r:id="rId42" display="http://apic.cefic.org/" xr:uid="{F61A4AC2-157D-497B-99C4-577DD289BAF8}"/>
+    <hyperlink ref="F45" r:id="rId43" display="http://www.efpia.org/Content/Default.asp" xr:uid="{7876D6E2-5F50-4CBC-A74F-80B1319977DE}"/>
+    <hyperlink ref="F46" r:id="rId44" display="http://www.ghtf.org/" xr:uid="{E9BFFD95-B7C6-4F39-A6E5-DED6AFC2FA8F}"/>
+    <hyperlink ref="F47" r:id="rId45" display="http://www.gphaonline.org/" xr:uid="{9F883534-857F-4A32-A836-86188C7EF12D}"/>
+    <hyperlink ref="F48" r:id="rId46" display="http://www.iest.org/" xr:uid="{0A48FA23-4F36-484C-BF0C-D93B7E506AC5}"/>
+    <hyperlink ref="F49" r:id="rId47" display="http://www.egagenerics.com/igpa.htm" xr:uid="{73B1ABB5-0ABC-4BEA-8AB4-061AE81EA34C}"/>
+    <hyperlink ref="F50" r:id="rId48" display="http://www.ipec-europe.org/" xr:uid="{347B6C0C-6364-4E84-BAF3-591BB61A230A}"/>
+    <hyperlink ref="F51" r:id="rId49" display="http://www.ispe.org/" xr:uid="{1981C010-B3EC-4E6A-BB21-F5710168E28E}"/>
+    <hyperlink ref="F52" r:id="rId50" display="http://www.pda.org/" xr:uid="{092D983B-FE04-4F46-8CDA-ABBAC0BE79B3}"/>
+    <hyperlink ref="F53" r:id="rId51" display="http://www.picscheme.org/" xr:uid="{CE31EDFB-16C1-4025-9239-C4CA7D63D04F}"/>
+    <hyperlink ref="F54" r:id="rId52" display="http://www.cdsco.nic.in/index.html" xr:uid="{90F7400F-B547-456B-A95E-BE065A719E41}"/>
+    <hyperlink ref="F55" r:id="rId53" display="http://www.chemdex.org/" xr:uid="{8CE6FDCC-DA5A-47BB-A19A-ECABC5774886}"/>
+    <hyperlink ref="F56" r:id="rId54" display="http://www.edqm.eu/en/Work-Programme-607.html" xr:uid="{B484B401-9E6F-4104-9552-3B1261590F72}"/>
+    <hyperlink ref="F57" r:id="rId55" display="http://apps.who.int/phint/en/p/about/" xr:uid="{4BDE95FE-5678-412B-A2F3-D4EBA569E1F0}"/>
+    <hyperlink ref="F58" r:id="rId56" display="http://jpdb.nihs.go.jp/jp15e/" xr:uid="{698C783F-93F5-4E3F-8CB9-4A6073EBA411}"/>
+    <hyperlink ref="F59" r:id="rId57" display="http://jpdb.nihs.go.jp/jp15/YAKKYOKUHOU15.pdf" xr:uid="{DB765231-EB15-4AFE-AFE5-4370FAA608CF}"/>
+    <hyperlink ref="F60" r:id="rId58" display="http://www.usp.org/" xr:uid="{65266F23-BBFD-4BC2-8571-C83E2B3ED641}"/>
+    <hyperlink ref="F61" r:id="rId59" display="http://www.druginfo.co.kr/" xr:uid="{7EC2CB7A-5404-4FCE-AAD1-0FB8E50F190B}"/>
+    <hyperlink ref="F62" r:id="rId60" display="http://bric.postech.ac.kr/" xr:uid="{688B041B-61FA-4102-A0F0-9965652B7FD1}"/>
+    <hyperlink ref="F63" r:id="rId61" display="http://sdic.sookmyung.ac.kr/" xr:uid="{DB653429-81CF-4352-8DE0-CF7AD3FDDF63}"/>
+    <hyperlink ref="F64" r:id="rId62" display="http://www.pharmweb.net/pwmirror/pwk/pharmwebk.html" xr:uid="{FE58E121-DDFA-4C32-9EAA-900BB5759A75}"/>
+    <hyperlink ref="F65" r:id="rId63" display="http://www.globepharm.org/links/resource.html" xr:uid="{29C498A6-97A8-4EC7-AC90-D08BF0BDC801}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
